--- a/ExcelData/P2EFormFillReport2.xlsx
+++ b/ExcelData/P2EFormFillReport2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="124">
   <si>
     <t>Date</t>
   </si>
@@ -327,6 +327,75 @@
   </si>
   <si>
     <t>28-Feb-2025 02_44_58 am</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Abdul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waseem Shah </t>
+  </si>
+  <si>
+    <t>8886597086</t>
+  </si>
+  <si>
+    <t>28-Feb-2025 07_14_00 am</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Mohammad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsh </t>
+  </si>
+  <si>
+    <t>9794220563</t>
+  </si>
+  <si>
+    <t>28-Feb-2025 07_39_26 am</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Vedant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunil Aher </t>
+  </si>
+  <si>
+    <t>7717369169</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Hazaribagh</t>
+  </si>
+  <si>
+    <t>Kaushal (PwD), Hazaribagh</t>
+  </si>
+  <si>
+    <t>28-Feb-2025 08_00_10 am</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Vissakoti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harikrishna </t>
+  </si>
+  <si>
+    <t>8320092276</t>
+  </si>
+  <si>
+    <t>28-Feb-2025 08_15_40 am</t>
   </si>
 </sst>
 </file>
@@ -691,7 +760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -1298,6 +1367,134 @@
         <v>100</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
